--- a/jpcore-r4/feature/swg5-IGWarnigFix/ValueSet-jp-procedure-codes-ichi-vs.xlsx
+++ b/jpcore-r4/feature/swg5-IGWarnigFix/ValueSet-jp-procedure-codes-ichi-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T03:57:37+00:00</t>
+    <t>2022-08-15T01:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
